--- a/LF/PreTAS/Nigeria/sept 2023/ng_lf_pretas_202309_2_participant.xlsx
+++ b/LF/PreTAS/Nigeria/sept 2023/ng_lf_pretas_202309_2_participant.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\yumbad\Repositories\dsa-forms\LF\PreTAS\Nigeria\sept 2023\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{C80584F5-5BE4-46AB-897F-7DE7DA95F19D}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{C6F29735-DFDC-443B-B4FF-B3A8C14DF3D9}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-28920" yWindow="-120" windowWidth="29040" windowHeight="15840" tabRatio="500" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="-120" yWindow="-120" windowWidth="38640" windowHeight="21240" tabRatio="500" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="survey" sheetId="1" r:id="rId1"/>
@@ -22,7 +22,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="113" uniqueCount="81">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="112" uniqueCount="82">
   <si>
     <t>type</t>
   </si>
@@ -156,27 +156,12 @@
     <t>The value must not be greater than the age</t>
   </si>
   <si>
-    <t>p_id_sequence</t>
-  </si>
-  <si>
-    <t>Enter the sequence ID</t>
-  </si>
-  <si>
-    <t>. &gt; 0</t>
-  </si>
-  <si>
-    <t>The number must be greater than 0</t>
-  </si>
-  <si>
     <t>p_code_id</t>
   </si>
   <si>
     <t>Please record the following unique ID code for the respondent on a separate list and on each diagnostic test(s) administered</t>
   </si>
   <si>
-    <t>concat(${p_recorder_id}, '-', ${p_cluster_id}, '-', ${p_id_sequence})</t>
-  </si>
-  <si>
     <t>note</t>
   </si>
   <si>
@@ -252,12 +237,6 @@
     <t>English</t>
   </si>
   <si>
-    <t>(Sept 2023) - 2. Nigeria - Pre TAS LF Participants Form</t>
-  </si>
-  <si>
-    <t>ng_lf_pretas_202309_2_participant</t>
-  </si>
-  <si>
     <t>Select your LGA</t>
   </si>
   <si>
@@ -265,6 +244,30 @@
   </si>
   <si>
     <t>p_end</t>
+  </si>
+  <si>
+    <t>(Oct 2023) - 2. Nigeria - Pre TAS LF Participants Form V2</t>
+  </si>
+  <si>
+    <t>ng_lf_pretas_202309_2_participant_v2</t>
+  </si>
+  <si>
+    <t>barcode</t>
+  </si>
+  <si>
+    <t>p_code_id2</t>
+  </si>
+  <si>
+    <t>Enter the barcode again</t>
+  </si>
+  <si>
+    <t>Get the barcode</t>
+  </si>
+  <si>
+    <t>. = ${p_code_id}</t>
+  </si>
+  <si>
+    <t>The barcode must be the same</t>
   </si>
 </sst>
 </file>
@@ -697,7 +700,7 @@
       <pane xSplit="2" ySplit="1" topLeftCell="C2" activePane="bottomRight" state="frozen"/>
       <selection pane="topRight"/>
       <selection pane="bottomLeft"/>
-      <selection pane="bottomRight" activeCell="C10" sqref="C10"/>
+      <selection pane="bottomRight" activeCell="F13" sqref="F13"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="11" defaultRowHeight="15.75"/>
@@ -812,7 +815,7 @@
         <v>24</v>
       </c>
       <c r="C4" s="11" t="s">
-        <v>78</v>
+        <v>71</v>
       </c>
       <c r="D4" s="11"/>
       <c r="G4" s="11"/>
@@ -966,21 +969,15 @@
     </row>
     <row r="11" spans="1:14" s="9" customFormat="1">
       <c r="A11" s="9" t="s">
-        <v>14</v>
+        <v>76</v>
       </c>
       <c r="B11" s="11" t="s">
         <v>44</v>
       </c>
       <c r="C11" s="11" t="s">
-        <v>45</v>
+        <v>79</v>
       </c>
       <c r="D11" s="11"/>
-      <c r="F11" s="9" t="s">
-        <v>46</v>
-      </c>
-      <c r="G11" s="9" t="s">
-        <v>47</v>
-      </c>
       <c r="H11" s="9" t="s">
         <v>35</v>
       </c>
@@ -990,72 +987,74 @@
     </row>
     <row r="12" spans="1:14" s="9" customFormat="1" ht="47.25">
       <c r="A12" s="9" t="s">
-        <v>21</v>
+        <v>76</v>
       </c>
       <c r="B12" s="11" t="s">
-        <v>48</v>
-      </c>
-      <c r="C12" s="11" t="s">
-        <v>49</v>
-      </c>
-      <c r="D12" s="11"/>
+        <v>77</v>
+      </c>
+      <c r="C12" s="9" t="s">
+        <v>78</v>
+      </c>
+      <c r="D12" s="11" t="s">
+        <v>45</v>
+      </c>
+      <c r="F12" s="9" t="s">
+        <v>80</v>
+      </c>
+      <c r="G12" s="9" t="s">
+        <v>81</v>
+      </c>
       <c r="H12" s="9" t="s">
         <v>35</v>
       </c>
-      <c r="I12" s="9" t="s">
-        <v>50</v>
-      </c>
       <c r="J12" s="11" t="s">
         <v>20</v>
       </c>
-      <c r="N12" s="9" t="s">
-        <v>20</v>
-      </c>
     </row>
     <row r="13" spans="1:14" s="9" customFormat="1" ht="31.5">
       <c r="A13" s="9" t="s">
-        <v>51</v>
+        <v>46</v>
       </c>
       <c r="B13" s="11" t="s">
-        <v>52</v>
+        <v>47</v>
       </c>
       <c r="C13" s="11" t="s">
-        <v>53</v>
+        <v>48</v>
       </c>
       <c r="D13" s="11"/>
       <c r="H13" s="9" t="s">
-        <v>54</v>
+        <v>49</v>
       </c>
       <c r="J13" s="11"/>
     </row>
     <row r="14" spans="1:14" s="9" customFormat="1">
       <c r="A14" s="9" t="s">
-        <v>55</v>
+        <v>50</v>
       </c>
       <c r="B14" s="11" t="s">
-        <v>56</v>
+        <v>51</v>
       </c>
       <c r="C14" s="11" t="s">
-        <v>57</v>
+        <v>52</v>
       </c>
       <c r="D14" s="11"/>
     </row>
     <row r="15" spans="1:14" s="9" customFormat="1">
       <c r="A15" s="9" t="s">
-        <v>58</v>
+        <v>53</v>
       </c>
       <c r="B15" s="11" t="s">
-        <v>79</v>
+        <v>72</v>
       </c>
       <c r="C15" s="11"/>
       <c r="D15" s="11"/>
     </row>
     <row r="16" spans="1:14">
       <c r="A16" s="9" t="s">
-        <v>59</v>
+        <v>54</v>
       </c>
       <c r="B16" s="10" t="s">
-        <v>80</v>
+        <v>73</v>
       </c>
     </row>
   </sheetData>
@@ -1082,7 +1081,7 @@
   <sheetData>
     <row r="1" spans="1:4">
       <c r="A1" s="1" t="s">
-        <v>60</v>
+        <v>55</v>
       </c>
       <c r="B1" s="1" t="s">
         <v>1</v>
@@ -1091,73 +1090,73 @@
         <v>2</v>
       </c>
       <c r="D1" s="2" t="s">
-        <v>61</v>
+        <v>56</v>
       </c>
     </row>
     <row r="2" spans="1:4">
       <c r="A2" s="3" t="s">
-        <v>62</v>
+        <v>57</v>
       </c>
       <c r="B2" t="s">
-        <v>63</v>
+        <v>58</v>
       </c>
       <c r="C2" t="s">
-        <v>63</v>
+        <v>58</v>
       </c>
     </row>
     <row r="3" spans="1:4">
       <c r="A3" s="3" t="s">
-        <v>62</v>
+        <v>57</v>
       </c>
       <c r="B3" t="s">
-        <v>64</v>
+        <v>59</v>
       </c>
       <c r="C3" t="s">
-        <v>64</v>
+        <v>59</v>
       </c>
     </row>
     <row r="4" spans="1:4">
       <c r="A4" s="3" t="s">
-        <v>65</v>
+        <v>60</v>
       </c>
       <c r="B4" t="s">
-        <v>66</v>
+        <v>61</v>
       </c>
       <c r="C4" t="s">
-        <v>66</v>
+        <v>61</v>
       </c>
     </row>
     <row r="5" spans="1:4">
       <c r="A5" s="3" t="s">
-        <v>65</v>
+        <v>60</v>
       </c>
       <c r="B5" t="s">
-        <v>67</v>
+        <v>62</v>
       </c>
       <c r="C5" t="s">
-        <v>67</v>
+        <v>62</v>
       </c>
     </row>
     <row r="6" spans="1:4">
       <c r="A6" t="s">
-        <v>68</v>
+        <v>63</v>
       </c>
       <c r="B6" t="s">
-        <v>69</v>
+        <v>64</v>
       </c>
       <c r="C6" t="s">
-        <v>69</v>
+        <v>64</v>
       </c>
     </row>
     <row r="7" spans="1:4">
       <c r="A7" t="s">
-        <v>68</v>
+        <v>63</v>
       </c>
       <c r="B7" t="s">
-        <v>70</v>
+        <v>65</v>
       </c>
       <c r="C7" t="s">
-        <v>71</v>
+        <v>66</v>
       </c>
     </row>
   </sheetData>
@@ -1173,7 +1172,7 @@
   <dimension ref="A1:C2"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="A2" sqref="A2"/>
+      <selection activeCell="B2" sqref="B2"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="11" defaultRowHeight="15.75"/>
@@ -1186,24 +1185,24 @@
   <sheetData>
     <row r="1" spans="1:3">
       <c r="A1" s="1" t="s">
-        <v>72</v>
+        <v>67</v>
       </c>
       <c r="B1" s="2" t="s">
-        <v>73</v>
+        <v>68</v>
       </c>
       <c r="C1" s="2" t="s">
-        <v>74</v>
+        <v>69</v>
       </c>
     </row>
     <row r="2" spans="1:3">
       <c r="A2" s="9" t="s">
-        <v>76</v>
+        <v>74</v>
       </c>
       <c r="B2" s="10" t="s">
-        <v>77</v>
+        <v>75</v>
       </c>
       <c r="C2" s="10" t="s">
-        <v>75</v>
+        <v>70</v>
       </c>
     </row>
   </sheetData>

--- a/LF/PreTAS/Nigeria/sept 2023/ng_lf_pretas_202309_2_participant.xlsx
+++ b/LF/PreTAS/Nigeria/sept 2023/ng_lf_pretas_202309_2_participant.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\yumbad\Repositories\dsa-forms\LF\PreTAS\Nigeria\sept 2023\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{C6F29735-DFDC-443B-B4FF-B3A8C14DF3D9}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{E39C2625-07AC-411C-8378-05696EBBC635}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-120" yWindow="-120" windowWidth="38640" windowHeight="21240" tabRatio="500" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="-28920" yWindow="-120" windowWidth="29040" windowHeight="15840" tabRatio="500" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="survey" sheetId="1" r:id="rId1"/>
@@ -22,7 +22,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="112" uniqueCount="82">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="113" uniqueCount="81">
   <si>
     <t>type</t>
   </si>
@@ -246,28 +246,25 @@
     <t>p_end</t>
   </si>
   <si>
-    <t>(Oct 2023) - 2. Nigeria - Pre TAS LF Participants Form V2</t>
-  </si>
-  <si>
-    <t>ng_lf_pretas_202309_2_participant_v2</t>
-  </si>
-  <si>
-    <t>barcode</t>
-  </si>
-  <si>
-    <t>p_code_id2</t>
-  </si>
-  <si>
-    <t>Enter the barcode again</t>
-  </si>
-  <si>
-    <t>Get the barcode</t>
-  </si>
-  <si>
-    <t>. = ${p_code_id}</t>
-  </si>
-  <si>
-    <t>The barcode must be the same</t>
+    <t>p_id_sequence</t>
+  </si>
+  <si>
+    <t>Enter the sequence ID</t>
+  </si>
+  <si>
+    <t>. &gt; 0</t>
+  </si>
+  <si>
+    <t>The number must be greater than 0</t>
+  </si>
+  <si>
+    <t>concat(${p_recorder_id}, '-', ${p_cluster_id}, '-', ${p_id_sequence})</t>
+  </si>
+  <si>
+    <t>(Oct 2023) - 2. Nigeria - Pre TAS LF Participants Form V3</t>
+  </si>
+  <si>
+    <t>ng_lf_pretas_202309_2_participant_v3</t>
   </si>
 </sst>
 </file>
@@ -700,7 +697,7 @@
       <pane xSplit="2" ySplit="1" topLeftCell="C2" activePane="bottomRight" state="frozen"/>
       <selection pane="topRight"/>
       <selection pane="bottomLeft"/>
-      <selection pane="bottomRight" activeCell="F13" sqref="F13"/>
+      <selection pane="bottomRight" activeCell="A11" sqref="A11:XFD11"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="11" defaultRowHeight="15.75"/>
@@ -969,15 +966,21 @@
     </row>
     <row r="11" spans="1:14" s="9" customFormat="1">
       <c r="A11" s="9" t="s">
+        <v>14</v>
+      </c>
+      <c r="B11" s="11" t="s">
+        <v>74</v>
+      </c>
+      <c r="C11" s="11" t="s">
+        <v>75</v>
+      </c>
+      <c r="D11" s="11"/>
+      <c r="F11" s="9" t="s">
         <v>76</v>
       </c>
-      <c r="B11" s="11" t="s">
-        <v>44</v>
-      </c>
-      <c r="C11" s="11" t="s">
-        <v>79</v>
-      </c>
-      <c r="D11" s="11"/>
+      <c r="G11" s="9" t="s">
+        <v>77</v>
+      </c>
       <c r="H11" s="9" t="s">
         <v>35</v>
       </c>
@@ -987,27 +990,25 @@
     </row>
     <row r="12" spans="1:14" s="9" customFormat="1" ht="47.25">
       <c r="A12" s="9" t="s">
-        <v>76</v>
+        <v>21</v>
       </c>
       <c r="B12" s="11" t="s">
-        <v>77</v>
-      </c>
-      <c r="C12" s="9" t="s">
-        <v>78</v>
-      </c>
-      <c r="D12" s="11" t="s">
+        <v>44</v>
+      </c>
+      <c r="C12" s="11" t="s">
         <v>45</v>
       </c>
-      <c r="F12" s="9" t="s">
-        <v>80</v>
-      </c>
-      <c r="G12" s="9" t="s">
-        <v>81</v>
-      </c>
+      <c r="D12" s="11"/>
       <c r="H12" s="9" t="s">
         <v>35</v>
       </c>
+      <c r="I12" s="9" t="s">
+        <v>78</v>
+      </c>
       <c r="J12" s="11" t="s">
+        <v>20</v>
+      </c>
+      <c r="N12" s="9" t="s">
         <v>20</v>
       </c>
     </row>
@@ -1196,10 +1197,10 @@
     </row>
     <row r="2" spans="1:3">
       <c r="A2" s="9" t="s">
-        <v>74</v>
+        <v>79</v>
       </c>
       <c r="B2" s="10" t="s">
-        <v>75</v>
+        <v>80</v>
       </c>
       <c r="C2" s="10" t="s">
         <v>70</v>
